--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2828.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2828.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173968890243703</v>
+        <v>1.088801741600037</v>
       </c>
       <c r="B1">
-        <v>2.440558202613684</v>
+        <v>2.455711841583252</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.210937976837158</v>
       </c>
       <c r="D1">
-        <v>2.36229326962543</v>
+        <v>2.215439558029175</v>
       </c>
       <c r="E1">
-        <v>1.235982748126037</v>
+        <v>1.289118885993958</v>
       </c>
     </row>
   </sheetData>
